--- a/SPY.xlsx
+++ b/SPY.xlsx
@@ -588,16 +588,16 @@
         <v>45561</v>
       </c>
       <c r="B4" t="n">
-        <v>567.4808141228361</v>
+        <v>567.4808753798238</v>
       </c>
       <c r="C4" t="n">
-        <v>567.8068671978508</v>
+        <v>567.8069284900345</v>
       </c>
       <c r="D4" t="n">
-        <v>563.0546451370627</v>
+        <v>563.0547059162656</v>
       </c>
       <c r="E4" t="n">
-        <v>565.42578125</v>
+        <v>565.4258422851562</v>
       </c>
       <c r="F4" t="n">
         <v>48336000</v>
@@ -612,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003964516805142537</v>
+        <v>0.003964625178572323</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001750371901313441</v>
+        <v>0.001750480035736413</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -650,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.001450247497392088</v>
+        <v>-0.001450355286310767</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002975859314520157</v>
+        <v>0.0002975859314522378</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -691,7 +691,7 @@
         <v>0.004007242418545776</v>
       </c>
       <c r="K6" t="n">
-        <v>0.004306020848965364</v>
+        <v>0.004306020848965586</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -702,16 +702,16 @@
         <v>45566</v>
       </c>
       <c r="B7" t="n">
-        <v>566.5127147792024</v>
+        <v>566.5126532309621</v>
       </c>
       <c r="C7" t="n">
-        <v>567.1647607538636</v>
+        <v>567.1646991347823</v>
       </c>
       <c r="D7" t="n">
-        <v>559.2015746645385</v>
+        <v>559.2015139106102</v>
       </c>
       <c r="E7" t="n">
-        <v>561.7901000976562</v>
+        <v>561.7900390625</v>
       </c>
       <c r="F7" t="n">
         <v>72668800</v>
@@ -726,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.008958317407029015</v>
+        <v>-0.008958425077819077</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.004690871259590002</v>
+        <v>-0.004690979394012529</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -764,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0004218648774294564</v>
+        <v>0.0004219735673323122</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.00427098529598946</v>
+        <v>-0.004270985295989349</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -778,16 +778,16 @@
         <v>45568</v>
       </c>
       <c r="B9" t="n">
-        <v>560.5450763874719</v>
+        <v>560.5451983588887</v>
       </c>
       <c r="C9" t="n">
-        <v>562.9557704621627</v>
+        <v>562.9558929581327</v>
       </c>
       <c r="D9" t="n">
-        <v>558.697542929224</v>
+        <v>558.6976644986279</v>
       </c>
       <c r="E9" t="n">
-        <v>560.9995727539062</v>
+        <v>560.9996948242188</v>
       </c>
       <c r="F9" t="n">
         <v>40846500</v>
@@ -802,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.001828251442293261</v>
+        <v>-0.001828034245804688</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.006091428303255264</v>
+        <v>-0.006091212034409654</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -816,16 +816,16 @@
         <v>45569</v>
       </c>
       <c r="B10" t="n">
-        <v>565.4752796115976</v>
+        <v>565.475218643551</v>
       </c>
       <c r="C10" t="n">
-        <v>566.4731577962565</v>
+        <v>566.4730967206212</v>
       </c>
       <c r="D10" t="n">
-        <v>561.2763278498037</v>
+        <v>561.2762673344769</v>
       </c>
       <c r="E10" t="n">
-        <v>566.0977172851562</v>
+        <v>566.09765625</v>
       </c>
       <c r="F10" t="n">
         <v>42939100</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.009087608580918394</v>
+        <v>0.009087280212119575</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002940823761544475</v>
+        <v>0.002940715627121726</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -854,16 +854,16 @@
         <v>45572</v>
       </c>
       <c r="B11" t="n">
-        <v>564.437756738031</v>
+        <v>564.4378181494166</v>
       </c>
       <c r="C11" t="n">
-        <v>565.089862846404</v>
+        <v>565.0899243287395</v>
       </c>
       <c r="D11" t="n">
-        <v>559.8238678282893</v>
+        <v>559.8239287376792</v>
       </c>
       <c r="E11" t="n">
-        <v>560.9797973632812</v>
+        <v>560.9798583984375</v>
       </c>
       <c r="F11" t="n">
         <v>49964700</v>
@@ -878,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.009040700510892563</v>
+        <v>-0.009040485850911884</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.006126463856231501</v>
+        <v>-0.006126355721808752</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.00945763469045513</v>
+        <v>0.009457524860479127</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003273228977127118</v>
+        <v>0.00327322897712734</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -957,7 +957,7 @@
         <v>0.006926478594191376</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01022237952176241</v>
+        <v>0.01022237952176264</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -995,7 +995,7 @@
         <v>-0.001750000508440985</v>
       </c>
       <c r="K14" t="n">
-        <v>0.008454489843960911</v>
+        <v>0.008454489843961133</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1006,16 +1006,16 @@
         <v>45576</v>
       </c>
       <c r="B15" t="n">
-        <v>569.1307797527231</v>
+        <v>569.1307190893117</v>
       </c>
       <c r="C15" t="n">
-        <v>573.3593995994619</v>
+        <v>573.3593384853236</v>
       </c>
       <c r="D15" t="n">
-        <v>568.9924468862521</v>
+        <v>568.9923862375855</v>
       </c>
       <c r="E15" t="n">
-        <v>572.618408203125</v>
+        <v>572.6183471679688</v>
       </c>
       <c r="F15" t="n">
         <v>42268000</v>
@@ -1030,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005988247396989888</v>
+        <v>0.00598814016912419</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01449336481775187</v>
+        <v>0.01449325668332935</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1044,16 +1044,16 @@
         <v>45579</v>
       </c>
       <c r="B16" t="n">
-        <v>574.2385913672036</v>
+        <v>574.2386520785454</v>
       </c>
       <c r="C16" t="n">
-        <v>578.2399926459956</v>
+        <v>578.2400537803853</v>
       </c>
       <c r="D16" t="n">
-        <v>573.7544866974504</v>
+        <v>573.7545473576104</v>
       </c>
       <c r="E16" t="n">
-        <v>577.3013916015625</v>
+        <v>577.3014526367188</v>
       </c>
       <c r="F16" t="n">
         <v>36217200</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.008178192198069034</v>
+        <v>0.008178406248964043</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02279008653889725</v>
+        <v>0.02279019467332022</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.007769620276183109</v>
+        <v>-0.007769725179671561</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01484339594424555</v>
+        <v>0.01484339594424577</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1147,7 +1147,7 @@
         <v>0.004346502515658823</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01925441531771699</v>
+        <v>0.01925441531771721</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1185,7 +1185,7 @@
         <v>8.57220849690421e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01934178793131203</v>
+        <v>0.01934178793131225</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1223,7 +1223,7 @@
         <v>0.003846661002563367</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02326285023523056</v>
+        <v>0.02326285023523078</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1234,16 +1234,16 @@
         <v>45586</v>
       </c>
       <c r="B21" t="n">
-        <v>576.8370795083325</v>
+        <v>576.837018450172</v>
       </c>
       <c r="C21" t="n">
-        <v>577.8250680389981</v>
+        <v>577.8250068762592</v>
       </c>
       <c r="D21" t="n">
-        <v>573.6261167836691</v>
+        <v>573.6260560653888</v>
       </c>
       <c r="E21" t="n">
-        <v>576.6197509765625</v>
+        <v>576.6196899414062</v>
       </c>
       <c r="F21" t="n">
         <v>36439000</v>
@@ -1258,16 +1258,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.00164220652532987</v>
+        <v>-0.001642312201425411</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02158244130544662</v>
+        <v>0.02158233317102409</v>
       </c>
       <c r="L21" t="n">
         <v>43742910</v>
       </c>
       <c r="M21" t="n">
-        <v>568.4856170654297</v>
+        <v>568.4856201171875</v>
       </c>
       <c r="N21" t="inlineStr"/>
     </row>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.0005312607636140942</v>
+        <v>-0.0005311549699137386</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02103971463758403</v>
+        <v>0.02103971463758425</v>
       </c>
       <c r="L22" t="n">
         <v>43111815</v>
       </c>
       <c r="M22" t="n">
-        <v>569.0793975830078</v>
+        <v>569.0794006347656</v>
       </c>
       <c r="N22" t="inlineStr"/>
     </row>
@@ -1318,16 +1318,16 @@
         <v>45588</v>
       </c>
       <c r="B23" t="n">
-        <v>574.2781657865612</v>
+        <v>574.2782271670283</v>
       </c>
       <c r="C23" t="n">
-        <v>574.722772641486</v>
+        <v>574.7228340694738</v>
       </c>
       <c r="D23" t="n">
-        <v>567.5202983769775</v>
+        <v>567.5203590351447</v>
       </c>
       <c r="E23" t="n">
-        <v>571.0474243164062</v>
+        <v>571.0474853515625</v>
       </c>
       <c r="F23" t="n">
         <v>49314600</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.009137373986199737</v>
+        <v>-0.009137268080012917</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01171009291017766</v>
+        <v>0.01171020104460085</v>
       </c>
       <c r="L23" t="n">
         <v>43656115</v>
       </c>
       <c r="M23" t="n">
-        <v>569.472119140625</v>
+        <v>569.4721252441407</v>
       </c>
       <c r="N23" t="inlineStr"/>
     </row>
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.002162773762962367</v>
+        <v>0.002162666648995337</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01389819295484807</v>
+        <v>0.01389819295484829</v>
       </c>
       <c r="L24" t="n">
         <v>42988310</v>
       </c>
       <c r="M24" t="n">
-        <v>569.8149536132812</v>
+        <v>569.8149566650391</v>
       </c>
       <c r="N24" t="inlineStr"/>
     </row>
@@ -1402,16 +1402,16 @@
         <v>45590</v>
       </c>
       <c r="B25" t="n">
-        <v>574.5252631127809</v>
+        <v>574.5252018172647</v>
       </c>
       <c r="C25" t="n">
-        <v>577.4398415567764</v>
+        <v>577.4397799503068</v>
       </c>
       <c r="D25" t="n">
-        <v>571.1364694352268</v>
+        <v>571.1364085012576</v>
       </c>
       <c r="E25" t="n">
-        <v>572.0848999023438</v>
+        <v>572.0848388671875</v>
       </c>
       <c r="F25" t="n">
         <v>47268200</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.0003452330114855906</v>
+        <v>-0.0003453396636361461</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01354816182835439</v>
+        <v>0.01354805369393186</v>
       </c>
       <c r="L25" t="n">
         <v>43246675</v>
@@ -1468,10 +1468,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.003091313286971209</v>
+        <v>0.003091420305775028</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01668135672799953</v>
+        <v>0.01668135672799997</v>
       </c>
       <c r="L26" t="n">
         <v>41577540</v>
@@ -1486,16 +1486,16 @@
         <v>45594</v>
       </c>
       <c r="B27" t="n">
-        <v>572.885123103402</v>
+        <v>572.8851839371208</v>
       </c>
       <c r="C27" t="n">
-        <v>575.9083655831134</v>
+        <v>575.9084267378655</v>
       </c>
       <c r="D27" t="n">
-        <v>571.4821962800153</v>
+        <v>571.4822569647598</v>
       </c>
       <c r="E27" t="n">
-        <v>574.7821044921875</v>
+        <v>574.7821655273438</v>
       </c>
       <c r="F27" t="n">
         <v>42899700</v>
@@ -1510,16 +1510,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.001618376658447884</v>
+        <v>0.001618483018638317</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01832673010480734</v>
+        <v>0.01832683823923031</v>
       </c>
       <c r="L27" t="n">
         <v>40089085</v>
       </c>
       <c r="M27" t="n">
-        <v>571.1877655029297</v>
+        <v>571.1877716064453</v>
       </c>
       <c r="N27" t="inlineStr"/>
     </row>
@@ -1528,16 +1528,16 @@
         <v>45595</v>
       </c>
       <c r="B28" t="n">
-        <v>574.30774562906</v>
+        <v>574.3078679687578</v>
       </c>
       <c r="C28" t="n">
-        <v>576.3133909921638</v>
+        <v>576.3135137591064</v>
       </c>
       <c r="D28" t="n">
-        <v>572.331768862428</v>
+        <v>572.3318907812009</v>
       </c>
       <c r="E28" t="n">
-        <v>573.0431518554688</v>
+        <v>573.0432739257812</v>
       </c>
       <c r="F28" t="n">
         <v>41435800</v>
@@ -1552,16 +1552,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.003025411931109279</v>
+        <v>-0.003025305421519353</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01524587226578067</v>
+        <v>0.01524608853462661</v>
       </c>
       <c r="L28" t="n">
         <v>40255985</v>
       </c>
       <c r="M28" t="n">
-        <v>571.7385681152343</v>
+        <v>571.7385803222656</v>
       </c>
       <c r="N28" t="inlineStr"/>
     </row>
@@ -1594,16 +1594,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.01960295200452367</v>
+        <v>-0.01960316084978808</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.004655943841036181</v>
+        <v>-0.004655943841035848</v>
       </c>
       <c r="L29" t="n">
         <v>41222785</v>
       </c>
       <c r="M29" t="n">
-        <v>571.7790802001953</v>
+        <v>571.779086303711</v>
       </c>
       <c r="N29" t="inlineStr"/>
     </row>
@@ -1612,16 +1612,16 @@
         <v>45597</v>
       </c>
       <c r="B30" t="n">
-        <v>564.4576349818459</v>
+        <v>564.4575739167589</v>
       </c>
       <c r="C30" t="n">
-        <v>568.6368073209918</v>
+        <v>568.6367458037868</v>
       </c>
       <c r="D30" t="n">
-        <v>563.7660309249709</v>
+        <v>563.7659699347041</v>
       </c>
       <c r="E30" t="n">
-        <v>564.1809692382812</v>
+        <v>564.180908203125</v>
       </c>
       <c r="F30" t="n">
         <v>45667500</v>
@@ -1636,16 +1636,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.004220564903203661</v>
+        <v>0.004220456262957972</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0004550296509993057</v>
+        <v>-0.000455137785421722</v>
       </c>
       <c r="L30" t="n">
         <v>41359205</v>
       </c>
       <c r="M30" t="n">
-        <v>571.6832427978516</v>
+        <v>571.6832489013672</v>
       </c>
       <c r="N30" t="inlineStr"/>
     </row>
@@ -1678,16 +1678,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.00215404464587754</v>
+        <v>-0.00215393669524877</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.002608094142693362</v>
+        <v>-0.002608094142693029</v>
       </c>
       <c r="L31" t="n">
         <v>40771820</v>
       </c>
       <c r="M31" t="n">
-        <v>571.7825378417969</v>
+        <v>571.7825408935547</v>
       </c>
       <c r="N31" t="inlineStr"/>
     </row>
@@ -1723,13 +1723,13 @@
         <v>0.01209187705924886</v>
       </c>
       <c r="K32" t="n">
-        <v>0.00945224616282303</v>
+        <v>0.009452246162823474</v>
       </c>
       <c r="L32" t="n">
         <v>40875800</v>
       </c>
       <c r="M32" t="n">
-        <v>571.9569213867187</v>
+        <v>571.9569244384766</v>
       </c>
       <c r="N32" t="inlineStr"/>
     </row>
@@ -1738,16 +1738,16 @@
         <v>45602</v>
       </c>
       <c r="B33" t="n">
-        <v>582.1228088428832</v>
+        <v>582.122869688031</v>
       </c>
       <c r="C33" t="n">
-        <v>584.8199980241973</v>
+        <v>584.8200591512631</v>
       </c>
       <c r="D33" t="n">
-        <v>578.3585752472569</v>
+        <v>578.3586356989562</v>
       </c>
       <c r="E33" t="n">
-        <v>583.940673828125</v>
+        <v>583.9407348632812</v>
       </c>
       <c r="F33" t="n">
         <v>68182000</v>
@@ -1762,16 +1762,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.02486545224019165</v>
+        <v>0.02486555936207213</v>
       </c>
       <c r="K33" t="n">
-        <v>0.03455273277853887</v>
+        <v>0.03455284091296229</v>
       </c>
       <c r="L33" t="n">
         <v>42389290</v>
       </c>
       <c r="M33" t="n">
-        <v>572.6435699462891</v>
+        <v>572.6435760498047</v>
       </c>
       <c r="N33" t="inlineStr"/>
     </row>
@@ -1780,16 +1780,16 @@
         <v>45603</v>
       </c>
       <c r="B34" t="n">
-        <v>585.9562917980459</v>
+        <v>585.9562310221482</v>
       </c>
       <c r="C34" t="n">
-        <v>589.4834183123661</v>
+        <v>589.4833571706318</v>
       </c>
       <c r="D34" t="n">
-        <v>585.8772358260113</v>
+        <v>585.8771750583134</v>
       </c>
       <c r="E34" t="n">
-        <v>588.4558715820312</v>
+        <v>588.455810546875</v>
       </c>
       <c r="F34" t="n">
         <v>47233200</v>
@@ -1804,16 +1804,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.007732288494832984</v>
+        <v>0.007732078640910078</v>
       </c>
       <c r="K34" t="n">
-        <v>0.04255219297150048</v>
+        <v>0.04255208483707817</v>
       </c>
       <c r="L34" t="n">
         <v>42544045</v>
       </c>
       <c r="M34" t="n">
-        <v>573.6058715820312</v>
+        <v>573.6058746337891</v>
       </c>
       <c r="N34" t="inlineStr"/>
     </row>
@@ -1822,16 +1822,16 @@
         <v>45604</v>
       </c>
       <c r="B35" t="n">
-        <v>589.0091266121742</v>
+        <v>589.0090657831266</v>
       </c>
       <c r="C35" t="n">
-        <v>592.4374782938615</v>
+        <v>592.4374171107561</v>
       </c>
       <c r="D35" t="n">
-        <v>589.0091266121742</v>
+        <v>589.0090657831266</v>
       </c>
       <c r="E35" t="n">
-        <v>591.0048828125</v>
+        <v>591.0048217773438</v>
       </c>
       <c r="F35" t="n">
         <v>46444900</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.004331694785568052</v>
+        <v>0.004331695234855104</v>
       </c>
       <c r="K35" t="n">
-        <v>0.04706821086947777</v>
+        <v>0.04706810273505524</v>
       </c>
       <c r="L35" t="n">
         <v>42752890</v>
       </c>
       <c r="M35" t="n">
-        <v>574.5251953125</v>
+        <v>574.5251983642578</v>
       </c>
       <c r="N35" t="inlineStr"/>
     </row>
@@ -1888,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0009529047950309621</v>
+        <v>0.0009530081669744117</v>
       </c>
       <c r="K36" t="n">
-        <v>0.04806596718833989</v>
+        <v>0.04806596718834011</v>
       </c>
       <c r="L36" t="n">
         <v>42821370</v>
@@ -1933,7 +1933,7 @@
         <v>-0.003106502297557046</v>
       </c>
       <c r="K37" t="n">
-        <v>0.04481014785327786</v>
+        <v>0.04481014785327808</v>
       </c>
       <c r="L37" t="n">
         <v>42261495</v>
@@ -1975,7 +1975,7 @@
         <v>0.000485813601166285</v>
       </c>
       <c r="K38" t="n">
-        <v>0.04531773083374158</v>
+        <v>0.0453177308337418</v>
       </c>
       <c r="L38" t="n">
         <v>43094655</v>
@@ -2017,7 +2017,7 @@
         <v>-0.006430128741193086</v>
       </c>
       <c r="K39" t="n">
-        <v>0.03859620324902879</v>
+        <v>0.03859620324902902</v>
       </c>
       <c r="L39" t="n">
         <v>43320175</v>
@@ -2032,16 +2032,16 @@
         <v>45611</v>
       </c>
       <c r="B40" t="n">
-        <v>582.6365800407317</v>
+        <v>582.6365185919044</v>
       </c>
       <c r="C40" t="n">
-        <v>583.1108555511576</v>
+        <v>583.1107940523099</v>
       </c>
       <c r="D40" t="n">
-        <v>576.8469815975038</v>
+        <v>576.8469207592872</v>
       </c>
       <c r="E40" t="n">
-        <v>578.7142944335938</v>
+        <v>578.7142333984375</v>
       </c>
       <c r="F40" t="n">
         <v>75988800</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.01280855150048255</v>
+        <v>-0.01280865561642519</v>
       </c>
       <c r="K40" t="n">
-        <v>0.02529329029150795</v>
+        <v>0.02529318215708543</v>
       </c>
       <c r="L40" t="n">
         <v>45248775</v>
       </c>
       <c r="M40" t="n">
-        <v>577.4205017089844</v>
+        <v>577.4204986572265</v>
       </c>
       <c r="N40" t="inlineStr"/>
     </row>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.004097280485316102</v>
+        <v>0.004097386384274371</v>
       </c>
       <c r="K41" t="n">
-        <v>0.02949420448154494</v>
+        <v>0.02949420448154516</v>
       </c>
       <c r="L41" t="n">
         <v>45276910</v>
@@ -2116,16 +2116,16 @@
         <v>45615</v>
       </c>
       <c r="B42" t="n">
-        <v>577.6867728258052</v>
+        <v>577.6867123686337</v>
       </c>
       <c r="C42" t="n">
-        <v>583.9406965622665</v>
+        <v>583.9406354505976</v>
       </c>
       <c r="D42" t="n">
-        <v>577.0149478875358</v>
+        <v>577.0148875006735</v>
       </c>
       <c r="E42" t="n">
-        <v>583.2095947265625</v>
+        <v>583.2095336914062</v>
       </c>
       <c r="F42" t="n">
         <v>49412000</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.003655478743562313</v>
+        <v>0.003655373707106335</v>
       </c>
       <c r="K42" t="n">
-        <v>0.03325749866264771</v>
+        <v>0.03325739052822541</v>
       </c>
       <c r="L42" t="n">
         <v>46038320</v>
       </c>
       <c r="M42" t="n">
-        <v>577.9885955810547</v>
+        <v>577.9885925292969</v>
       </c>
       <c r="N42" t="inlineStr"/>
     </row>
@@ -2158,16 +2158,16 @@
         <v>45616</v>
       </c>
       <c r="B43" t="n">
-        <v>583.2887337858979</v>
+        <v>583.2886727631445</v>
       </c>
       <c r="C43" t="n">
-        <v>583.6937825923989</v>
+        <v>583.69372152727</v>
       </c>
       <c r="D43" t="n">
-        <v>577.6077991479867</v>
+        <v>577.6077387195638</v>
       </c>
       <c r="E43" t="n">
-        <v>583.4072875976562</v>
+        <v>583.4072265625</v>
       </c>
       <c r="F43" t="n">
         <v>50032600</v>
@@ -2182,16 +2182,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0003389739690178306</v>
+        <v>0.0003389740044927869</v>
       </c>
       <c r="K43" t="n">
-        <v>0.03360774605798689</v>
+        <v>0.03360763792356458</v>
       </c>
       <c r="L43" t="n">
         <v>46074220</v>
       </c>
       <c r="M43" t="n">
-        <v>578.6065887451172</v>
+        <v>578.6065795898437</v>
       </c>
       <c r="N43" t="inlineStr"/>
     </row>
@@ -2224,16 +2224,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.005368181035921182</v>
+        <v>0.00536828621597607</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0391563395589567</v>
+        <v>0.03915633955895714</v>
       </c>
       <c r="L44" t="n">
         <v>46662740</v>
       </c>
       <c r="M44" t="n">
-        <v>579.3194213867188</v>
+        <v>579.3194122314453</v>
       </c>
       <c r="N44" t="inlineStr"/>
     </row>
@@ -2269,13 +2269,13 @@
         <v>0.00309931771097105</v>
       </c>
       <c r="K45" t="n">
-        <v>0.04237701520661963</v>
+        <v>0.04237701520662007</v>
       </c>
       <c r="L45" t="n">
         <v>46210650</v>
       </c>
       <c r="M45" t="n">
-        <v>580.1330261230469</v>
+        <v>580.1330200195313</v>
       </c>
       <c r="N45" t="inlineStr"/>
     </row>
@@ -2311,13 +2311,13 @@
         <v>0.003392138773632647</v>
       </c>
       <c r="K46" t="n">
-        <v>0.04591290269664539</v>
+        <v>0.04591290269664583</v>
       </c>
       <c r="L46" t="n">
         <v>46823985</v>
       </c>
       <c r="M46" t="n">
-        <v>580.9579956054688</v>
+        <v>580.9579895019531</v>
       </c>
       <c r="N46" t="inlineStr"/>
     </row>
@@ -2353,13 +2353,13 @@
         <v>0.005221487251275247</v>
       </c>
       <c r="K47" t="n">
-        <v>0.05137412358402016</v>
+        <v>0.0513741235840206</v>
       </c>
       <c r="L47" t="n">
         <v>46960065</v>
       </c>
       <c r="M47" t="n">
-        <v>581.8906555175781</v>
+        <v>581.8906463623047</v>
       </c>
       <c r="N47" t="inlineStr"/>
     </row>
@@ -2368,16 +2368,16 @@
         <v>45623</v>
       </c>
       <c r="B48" t="n">
-        <v>593.2475720089939</v>
+        <v>593.2475108077009</v>
       </c>
       <c r="C48" t="n">
-        <v>593.6328416785968</v>
+        <v>593.6327804375584</v>
       </c>
       <c r="D48" t="n">
-        <v>590.1057759445099</v>
+        <v>590.1057150673347</v>
       </c>
       <c r="E48" t="n">
-        <v>591.6371459960938</v>
+        <v>591.6370849609375</v>
       </c>
       <c r="F48" t="n">
         <v>34000200</v>
@@ -2392,16 +2392,16 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.003030080499080268</v>
+        <v>-0.003030183349645443</v>
       </c>
       <c r="K48" t="n">
-        <v>0.04818837535491061</v>
+        <v>0.0481882672204883</v>
       </c>
       <c r="L48" t="n">
         <v>46588285</v>
       </c>
       <c r="M48" t="n">
-        <v>582.8203552246093</v>
+        <v>582.8203369140625</v>
       </c>
       <c r="N48" t="inlineStr"/>
     </row>
@@ -2434,16 +2434,16 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.006212072709806282</v>
+        <v>0.00621217651383188</v>
       </c>
       <c r="K49" t="n">
-        <v>0.05469979775618894</v>
+        <v>0.05469979775618961</v>
       </c>
       <c r="L49" t="n">
         <v>45088030</v>
       </c>
       <c r="M49" t="n">
-        <v>584.4954864501954</v>
+        <v>584.4954681396484</v>
       </c>
       <c r="N49" t="inlineStr"/>
     </row>
@@ -2479,13 +2479,13 @@
         <v>0.001792364028908811</v>
       </c>
       <c r="K50" t="n">
-        <v>0.05659020373498458</v>
+        <v>0.05659020373498524</v>
       </c>
       <c r="L50" t="n">
         <v>44391955</v>
       </c>
       <c r="M50" t="n">
-        <v>586.1054107666016</v>
+        <v>586.1053955078125</v>
       </c>
       <c r="N50" t="inlineStr"/>
     </row>
@@ -2494,16 +2494,16 @@
         <v>45629</v>
       </c>
       <c r="B51" t="n">
-        <v>596.1424148983427</v>
+        <v>596.1424758809485</v>
       </c>
       <c r="C51" t="n">
-        <v>596.9031250627299</v>
+        <v>596.9031861231529</v>
       </c>
       <c r="D51" t="n">
-        <v>595.1050389999714</v>
+        <v>595.1050998764584</v>
       </c>
       <c r="E51" t="n">
-        <v>596.6561279296875</v>
+        <v>596.6561889648438</v>
       </c>
       <c r="F51" t="n">
         <v>26906600</v>
@@ -2518,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0004639200104881169</v>
+        <v>0.0004640223533096677</v>
       </c>
       <c r="K51" t="n">
-        <v>0.05708037707338298</v>
+        <v>0.0570804852078064</v>
       </c>
       <c r="L51" t="n">
         <v>43826435</v>
       </c>
       <c r="M51" t="n">
-        <v>587.7899322509766</v>
+        <v>587.7899200439454</v>
       </c>
       <c r="N51" t="n">
-        <v>576.5574865722656</v>
+        <v>576.5574853515625</v>
       </c>
     </row>
     <row r="52">
@@ -2562,19 +2562,19 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.00620943093702353</v>
+        <v>0.006209328006473225</v>
       </c>
       <c r="K52" t="n">
-        <v>0.06364424466970298</v>
+        <v>0.06364424466970364</v>
       </c>
       <c r="L52" t="n">
         <v>43991900</v>
       </c>
       <c r="M52" t="n">
-        <v>589.3193328857421</v>
+        <v>589.3193206787109</v>
       </c>
       <c r="N52" t="n">
-        <v>577.2759509277344</v>
+        <v>577.2759497070313</v>
       </c>
     </row>
     <row r="53">
@@ -2582,16 +2582,16 @@
         <v>45631</v>
       </c>
       <c r="B53" t="n">
-        <v>600.3610353255455</v>
+        <v>600.3610964613101</v>
       </c>
       <c r="C53" t="n">
-        <v>601.1711930912362</v>
+        <v>601.1712543095007</v>
       </c>
       <c r="D53" t="n">
-        <v>599.0173855052907</v>
+        <v>599.0174465042294</v>
       </c>
       <c r="E53" t="n">
-        <v>599.373046875</v>
+        <v>599.3731079101562</v>
       </c>
       <c r="F53" t="n">
         <v>28762200</v>
@@ -2606,16 +2606,16 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.00164563660273187</v>
+        <v>-0.001645534938643167</v>
       </c>
       <c r="K53" t="n">
-        <v>0.06189387276838931</v>
+        <v>0.06189398090281295</v>
       </c>
       <c r="L53" t="n">
         <v>42020910</v>
       </c>
       <c r="M53" t="n">
-        <v>590.090951538086</v>
+        <v>590.0909393310546</v>
       </c>
       <c r="N53" t="n">
         <v>577.9995520019531</v>
@@ -2650,19 +2650,19 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.001895698304543503</v>
+        <v>0.001895596279845257</v>
       </c>
       <c r="K54" t="n">
-        <v>0.06390690318260139</v>
+        <v>0.0639069031826025</v>
       </c>
       <c r="L54" t="n">
         <v>41221325</v>
       </c>
       <c r="M54" t="n">
-        <v>590.6936218261719</v>
+        <v>590.6936126708985</v>
       </c>
       <c r="N54" t="n">
-        <v>578.7012219238281</v>
+        <v>578.701220703125</v>
       </c>
     </row>
     <row r="55">
@@ -2670,16 +2670,16 @@
         <v>45635</v>
       </c>
       <c r="B55" t="n">
-        <v>600.3907251065754</v>
+        <v>600.3907864455558</v>
       </c>
       <c r="C55" t="n">
-        <v>600.558666264525</v>
+        <v>600.5587276206631</v>
       </c>
       <c r="D55" t="n">
-        <v>596.8241011467584</v>
+        <v>596.8241621213543</v>
       </c>
       <c r="E55" t="n">
-        <v>597.4168701171875</v>
+        <v>597.4169311523438</v>
       </c>
       <c r="F55" t="n">
         <v>34742700</v>
@@ -2694,16 +2694,16 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.005149641051743981</v>
+        <v>-0.005149539412754311</v>
       </c>
       <c r="K55" t="n">
-        <v>0.05842816451873856</v>
+        <v>0.05842827265316242</v>
       </c>
       <c r="L55" t="n">
         <v>40636215</v>
       </c>
       <c r="M55" t="n">
-        <v>591.0142211914062</v>
+        <v>591.0142181396484</v>
       </c>
       <c r="N55" t="n">
         <v>579.3574438476562</v>
@@ -2714,16 +2714,16 @@
         <v>45636</v>
       </c>
       <c r="B56" t="n">
-        <v>598.0986471868431</v>
+        <v>598.0985858914665</v>
       </c>
       <c r="C56" t="n">
-        <v>598.5234750437891</v>
+        <v>598.5234137048745</v>
       </c>
       <c r="D56" t="n">
-        <v>594.8975738074082</v>
+        <v>594.8975128400896</v>
       </c>
       <c r="E56" t="n">
-        <v>595.5595092773438</v>
+        <v>595.5594482421875</v>
       </c>
       <c r="F56" t="n">
         <v>37234500</v>
@@ -2738,19 +2738,19 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.003108986258589241</v>
+        <v>-0.00310919027114509</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0551375258995459</v>
+        <v>0.05513741776512426</v>
       </c>
       <c r="L56" t="n">
         <v>40618600</v>
       </c>
       <c r="M56" t="n">
-        <v>591.2137939453125</v>
+        <v>591.2137878417968</v>
       </c>
       <c r="N56" t="n">
-        <v>579.9312683105469</v>
+        <v>579.9312670898438</v>
       </c>
     </row>
     <row r="57">
@@ -2782,16 +2782,16 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0.007730552253017553</v>
+        <v>0.007730655529007757</v>
       </c>
       <c r="K57" t="n">
-        <v>0.06329432167763205</v>
+        <v>0.06329432167763316</v>
       </c>
       <c r="L57" t="n">
         <v>39902180</v>
       </c>
       <c r="M57" t="n">
-        <v>591.7354522705078</v>
+        <v>591.7354461669922</v>
       </c>
       <c r="N57" t="n">
         <v>580.6987365722656</v>
@@ -2802,16 +2802,16 @@
         <v>45638</v>
       </c>
       <c r="B58" t="n">
-        <v>599.2940800778147</v>
+        <v>599.2941413402128</v>
       </c>
       <c r="C58" t="n">
-        <v>599.8670699892645</v>
+        <v>599.867131310236</v>
       </c>
       <c r="D58" t="n">
-        <v>597.0711059570312</v>
+        <v>597.0711669921875</v>
       </c>
       <c r="E58" t="n">
-        <v>597.0711059570312</v>
+        <v>597.0711669921875</v>
       </c>
       <c r="F58" t="n">
         <v>31543800</v>
@@ -2826,19 +2826,19 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.00515260784541649</v>
+        <v>-0.005152506147870883</v>
       </c>
       <c r="K58" t="n">
-        <v>0.05781558301376899</v>
+        <v>0.05781569114819285</v>
       </c>
       <c r="L58" t="n">
         <v>39109940</v>
       </c>
       <c r="M58" t="n">
-        <v>592.0881652832031</v>
+        <v>592.0881622314453</v>
       </c>
       <c r="N58" t="n">
-        <v>581.3996166992188</v>
+        <v>581.3996179199219</v>
       </c>
     </row>
     <row r="59">
@@ -2870,19 +2870,19 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.000198621751095529</v>
+        <v>-0.0001987239550482744</v>
       </c>
       <c r="K59" t="n">
-        <v>0.05760547783033476</v>
+        <v>0.05760547783033565</v>
       </c>
       <c r="L59" t="n">
         <v>38959970</v>
       </c>
       <c r="M59" t="n">
-        <v>592.624642944336</v>
+        <v>592.6246398925781</v>
       </c>
       <c r="N59" t="n">
-        <v>582.1186755371094</v>
+        <v>582.1186743164062</v>
       </c>
     </row>
     <row r="60">
@@ -2917,7 +2917,7 @@
         <v>0.004270040192342561</v>
       </c>
       <c r="K60" t="n">
-        <v>0.06212149572831205</v>
+        <v>0.06212149572831294</v>
       </c>
       <c r="L60" t="n">
         <v>37345290</v>
@@ -2961,7 +2961,7 @@
         <v>-0.004120040728009644</v>
       </c>
       <c r="K61" t="n">
-        <v>0.05774551190781696</v>
+        <v>0.05774551190781785</v>
       </c>
       <c r="L61" t="n">
         <v>38283880</v>
@@ -2970,7 +2970,7 @@
         <v>594.4613098144531</v>
       </c>
       <c r="N61" t="n">
-        <v>583.5077868652344</v>
+        <v>583.5077856445313</v>
       </c>
     </row>
     <row r="62">
@@ -3005,16 +3005,16 @@
         <v>-0.02980351705443751</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0262209755044176</v>
+        <v>0.02622097550441849</v>
       </c>
       <c r="L62" t="n">
         <v>41225715</v>
       </c>
       <c r="M62" t="n">
-        <v>594.2627258300781</v>
+        <v>594.262728881836</v>
       </c>
       <c r="N62" t="n">
-        <v>583.7668383789063</v>
+        <v>583.7668371582031</v>
       </c>
     </row>
     <row r="63">
@@ -3049,16 +3049,16 @@
         <v>-0.0003070524920670836</v>
       </c>
       <c r="K63" t="n">
-        <v>0.02590587179647752</v>
+        <v>0.02590587179647841</v>
       </c>
       <c r="L63" t="n">
         <v>43020060</v>
       </c>
       <c r="M63" t="n">
-        <v>594.0453643798828</v>
+        <v>594.0453704833984</v>
       </c>
       <c r="N63" t="n">
-        <v>583.9438854980468</v>
+        <v>583.9438842773437</v>
       </c>
     </row>
     <row r="64">
@@ -3093,16 +3093,16 @@
         <v>0.01201097886442115</v>
       </c>
       <c r="K64" t="n">
-        <v>0.03822800553951056</v>
+        <v>0.03822800553951144</v>
       </c>
       <c r="L64" t="n">
         <v>46968380</v>
       </c>
       <c r="M64" t="n">
-        <v>594.0191650390625</v>
+        <v>594.0191711425781</v>
       </c>
       <c r="N64" t="n">
-        <v>584.2799914550782</v>
+        <v>584.279990234375</v>
       </c>
     </row>
     <row r="65">
@@ -3137,13 +3137,13 @@
         <v>0.005988373207216791</v>
       </c>
       <c r="K65" t="n">
-        <v>0.04444530231086552</v>
+        <v>0.04444530231086641</v>
       </c>
       <c r="L65" t="n">
         <v>47938850</v>
       </c>
       <c r="M65" t="n">
-        <v>594.0775360107422</v>
+        <v>594.0775421142578</v>
       </c>
       <c r="N65" t="n">
         <v>584.6181115722657</v>
@@ -3181,16 +3181,16 @@
         <v>0.01111497863909761</v>
       </c>
       <c r="K66" t="n">
-        <v>0.05605428953575653</v>
+        <v>0.05605428953575764</v>
       </c>
       <c r="L66" t="n">
         <v>47474785</v>
       </c>
       <c r="M66" t="n">
-        <v>594.3637451171875</v>
+        <v>594.3637512207031</v>
       </c>
       <c r="N66" t="n">
-        <v>584.993623046875</v>
+        <v>584.9936218261719</v>
       </c>
     </row>
     <row r="67">
@@ -3225,16 +3225,16 @@
         <v>6.655659230236921e-05</v>
       </c>
       <c r="K67" t="n">
-        <v>0.05612457691055428</v>
+        <v>0.05612457691055539</v>
       </c>
       <c r="L67" t="n">
         <v>47254675</v>
       </c>
       <c r="M67" t="n">
-        <v>594.4978118896485</v>
+        <v>594.4978179931641</v>
       </c>
       <c r="N67" t="n">
-        <v>585.4596362304687</v>
+        <v>585.4596350097656</v>
       </c>
     </row>
     <row r="68">
@@ -3269,16 +3269,16 @@
         <v>-0.01052660678678474</v>
       </c>
       <c r="K68" t="n">
-        <v>0.04500716877155742</v>
+        <v>0.04500716877155853</v>
       </c>
       <c r="L68" t="n">
         <v>48803130</v>
       </c>
       <c r="M68" t="n">
-        <v>594.4080322265625</v>
+        <v>594.4080413818359</v>
       </c>
       <c r="N68" t="n">
-        <v>585.7503527832031</v>
+        <v>585.7503515625</v>
       </c>
     </row>
     <row r="69">
@@ -3313,16 +3313,16 @@
         <v>-0.01141156982786773</v>
       </c>
       <c r="K69" t="n">
-        <v>0.03308199649449839</v>
+        <v>0.0330819964944995</v>
       </c>
       <c r="L69" t="n">
         <v>50123200</v>
       </c>
       <c r="M69" t="n">
-        <v>593.7979370117188</v>
+        <v>593.7979461669922</v>
       </c>
       <c r="N69" t="n">
-        <v>585.9054626464844</v>
+        <v>585.9054614257813</v>
       </c>
     </row>
     <row r="70">
@@ -3357,16 +3357,16 @@
         <v>-0.0036380734005933</v>
       </c>
       <c r="K70" t="n">
-        <v>0.02932356836242</v>
+        <v>0.02932356836242112</v>
       </c>
       <c r="L70" t="n">
         <v>51388535</v>
       </c>
       <c r="M70" t="n">
-        <v>593.0284210205078</v>
+        <v>593.0284301757813</v>
       </c>
       <c r="N70" t="n">
-        <v>585.9738806152344</v>
+        <v>585.9738793945312</v>
       </c>
     </row>
     <row r="71">
@@ -3401,13 +3401,13 @@
         <v>-0.002456894821957878</v>
       </c>
       <c r="K71" t="n">
-        <v>0.02679462861719117</v>
+        <v>0.02679462861719228</v>
       </c>
       <c r="L71" t="n">
         <v>52553405</v>
       </c>
       <c r="M71" t="n">
-        <v>592.1736999511719</v>
+        <v>592.1737060546875</v>
       </c>
       <c r="N71" t="n">
         <v>586.0327197265625</v>
@@ -3445,13 +3445,13 @@
         <v>0.0125033449917904</v>
       </c>
       <c r="K72" t="n">
-        <v>0.03963299609450921</v>
+        <v>0.03963299609451032</v>
       </c>
       <c r="L72" t="n">
         <v>52308450</v>
       </c>
       <c r="M72" t="n">
-        <v>591.4960571289063</v>
+        <v>591.4960632324219</v>
       </c>
       <c r="N72" t="n">
         <v>586.2426147460938</v>
@@ -3489,16 +3489,16 @@
         <v>0.005760710777162892</v>
       </c>
       <c r="K73" t="n">
-        <v>0.04562202109940494</v>
+        <v>0.04562202109940605</v>
       </c>
       <c r="L73" t="n">
         <v>53254310</v>
       </c>
       <c r="M73" t="n">
-        <v>591.0368347167969</v>
+        <v>591.0368377685547</v>
       </c>
       <c r="N73" t="n">
-        <v>586.6254382324219</v>
+        <v>586.6254370117188</v>
       </c>
     </row>
     <row r="74">
@@ -3533,16 +3533,16 @@
         <v>-0.0113040285842817</v>
       </c>
       <c r="K74" t="n">
-        <v>0.03380227988454276</v>
+        <v>0.03380227988454387</v>
       </c>
       <c r="L74" t="n">
         <v>54711890</v>
       </c>
       <c r="M74" t="n">
-        <v>590.1872253417969</v>
+        <v>590.1872283935547</v>
       </c>
       <c r="N74" t="n">
-        <v>586.8501306152343</v>
+        <v>586.8501293945312</v>
       </c>
     </row>
     <row r="75">
@@ -3577,7 +3577,7 @@
         <v>0.001460826095797341</v>
       </c>
       <c r="K75" t="n">
-        <v>0.03531248523289299</v>
+        <v>0.0353124852328941</v>
       </c>
       <c r="L75" t="n">
         <v>55339990</v>
@@ -3621,13 +3621,13 @@
         <v>-0.015267523194883</v>
       </c>
       <c r="K76" t="n">
-        <v>0.01950582785064792</v>
+        <v>0.01950582785064903</v>
       </c>
       <c r="L76" t="n">
         <v>57133515</v>
       </c>
       <c r="M76" t="n">
-        <v>588.529263305664</v>
+        <v>588.5292663574219</v>
       </c>
       <c r="N76" t="n">
         <v>587.1277075195312</v>
@@ -3665,16 +3665,16 @@
         <v>0.001550571937140477</v>
       </c>
       <c r="K77" t="n">
-        <v>0.02108664497706436</v>
+        <v>0.02108664497706547</v>
       </c>
       <c r="L77" t="n">
         <v>58095135</v>
       </c>
       <c r="M77" t="n">
-        <v>587.3380828857422</v>
+        <v>587.3380859375</v>
       </c>
       <c r="N77" t="n">
-        <v>587.1588635253906</v>
+        <v>587.1588623046875</v>
       </c>
     </row>
     <row r="78">
@@ -3709,7 +3709,7 @@
         <v>0.001376081742263002</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02249174366648599</v>
+        <v>0.0224917436664871</v>
       </c>
       <c r="L78" t="n">
         <v>58938975</v>
@@ -3718,7 +3718,7 @@
         <v>586.341177368164</v>
       </c>
       <c r="N78" t="n">
-        <v>587.2406604003907</v>
+        <v>587.2406567382812</v>
       </c>
     </row>
     <row r="79">
@@ -3753,7 +3753,7 @@
         <v>0.01818999598868287</v>
       </c>
       <c r="K79" t="n">
-        <v>0.04109086438224074</v>
+        <v>0.04109086438224185</v>
       </c>
       <c r="L79" t="n">
         <v>59988750</v>
@@ -3762,7 +3762,7 @@
         <v>585.8751037597656</v>
       </c>
       <c r="N79" t="n">
-        <v>587.7570849609375</v>
+        <v>587.7570812988281</v>
       </c>
     </row>
     <row r="80">
@@ -3797,7 +3797,7 @@
         <v>-0.001923191375926225</v>
       </c>
       <c r="K80" t="n">
-        <v>0.03908864741030516</v>
+        <v>0.03908864741030627</v>
       </c>
       <c r="L80" t="n">
         <v>59969975</v>
@@ -3806,7 +3806,7 @@
         <v>585.2250732421875</v>
       </c>
       <c r="N80" t="n">
-        <v>588.2034838867188</v>
+        <v>588.2034814453125</v>
       </c>
     </row>
     <row r="81">
@@ -3841,7 +3841,7 @@
         <v>0.01003992931380249</v>
       </c>
       <c r="K81" t="n">
-        <v>0.04952102398107927</v>
+        <v>0.04952102398108038</v>
       </c>
       <c r="L81" t="n">
         <v>60084830</v>
@@ -3850,7 +3850,7 @@
         <v>584.9929626464843</v>
       </c>
       <c r="N81" t="n">
-        <v>588.7919567871094</v>
+        <v>588.7919543457032</v>
       </c>
     </row>
     <row r="82">
@@ -3885,7 +3885,7 @@
         <v>0.009153377492232107</v>
       </c>
       <c r="K82" t="n">
-        <v>0.05912768609961216</v>
+        <v>0.05912768609961327</v>
       </c>
       <c r="L82" t="n">
         <v>56799040</v>
@@ -3894,7 +3894,7 @@
         <v>585.9216522216797</v>
       </c>
       <c r="N82" t="n">
-        <v>589.3527307128907</v>
+        <v>589.3527282714844</v>
       </c>
     </row>
     <row r="83">
@@ -3929,7 +3929,7 @@
         <v>0.005621495307541968</v>
       </c>
       <c r="K83" t="n">
-        <v>0.06508156741710902</v>
+        <v>0.06508156741711013</v>
       </c>
       <c r="L83" t="n">
         <v>54912865</v>
@@ -3938,7 +3938,7 @@
         <v>587.0272644042968</v>
       </c>
       <c r="N83" t="n">
-        <v>589.69736328125</v>
+        <v>589.6973596191406</v>
       </c>
     </row>
     <row r="84">
@@ -3973,7 +3973,7 @@
         <v>0.005458187316509155</v>
       </c>
       <c r="K84" t="n">
-        <v>0.07089498211943268</v>
+        <v>0.07089498211943379</v>
       </c>
       <c r="L84" t="n">
         <v>50684635</v>
@@ -3982,7 +3982,7 @@
         <v>587.9491882324219</v>
       </c>
       <c r="N84" t="n">
-        <v>590.0173181152344</v>
+        <v>590.0173156738281</v>
       </c>
     </row>
     <row r="85">
@@ -4017,7 +4017,7 @@
         <v>-0.002919410850934723</v>
       </c>
       <c r="K85" t="n">
-        <v>0.06776859968842164</v>
+        <v>0.06776859968842275</v>
       </c>
       <c r="L85" t="n">
         <v>49533080</v>
@@ -4026,7 +4026,7 @@
         <v>588.6074157714844</v>
       </c>
       <c r="N85" t="n">
-        <v>590.2509997558594</v>
+        <v>590.2509985351562</v>
       </c>
     </row>
     <row r="86">
@@ -4061,7 +4061,7 @@
         <v>-0.01414538684460187</v>
       </c>
       <c r="K86" t="n">
-        <v>0.05266459978531013</v>
+        <v>0.05266459978531124</v>
       </c>
       <c r="L86" t="n">
         <v>51393130</v>
@@ -4070,7 +4070,7 @@
         <v>588.511752319336</v>
       </c>
       <c r="N86" t="n">
-        <v>590.3029125976562</v>
+        <v>590.3029113769531</v>
       </c>
     </row>
     <row r="87">
@@ -4105,7 +4105,7 @@
         <v>0.00859238906115789</v>
       </c>
       <c r="K87" t="n">
-        <v>0.06170950357757365</v>
+        <v>0.06170950357757476</v>
       </c>
       <c r="L87" t="n">
         <v>51553840</v>
@@ -4114,7 +4114,7 @@
         <v>588.6693695068359</v>
       </c>
       <c r="N87" t="n">
-        <v>590.4936853027343</v>
+        <v>590.4936840820312</v>
       </c>
     </row>
     <row r="88">
@@ -4149,7 +4149,7 @@
         <v>-0.004482899137672081</v>
       </c>
       <c r="K88" t="n">
-        <v>0.05694996695952748</v>
+        <v>0.05694996695952859</v>
       </c>
       <c r="L88" t="n">
         <v>50164245</v>
@@ -4158,7 +4158,7 @@
         <v>589.0064178466797</v>
       </c>
       <c r="N88" t="n">
-        <v>590.6249987792969</v>
+        <v>590.6249975585938</v>
       </c>
     </row>
     <row r="89">
@@ -4193,7 +4193,7 @@
         <v>0.005367076962615069</v>
       </c>
       <c r="K89" t="n">
-        <v>0.06262269877783266</v>
+        <v>0.06262269877783377</v>
       </c>
       <c r="L89" t="n">
         <v>49299370</v>
@@ -4202,7 +4202,7 @@
         <v>589.8401123046875</v>
       </c>
       <c r="N89" t="n">
-        <v>590.8962280273438</v>
+        <v>590.8962268066406</v>
       </c>
     </row>
     <row r="90">
@@ -4237,7 +4237,7 @@
         <v>-0.005321939808288878</v>
       </c>
       <c r="K90" t="n">
-        <v>0.05696748473601554</v>
+        <v>0.05696748473601665</v>
       </c>
       <c r="L90" t="n">
         <v>49775080</v>
@@ -4281,7 +4281,7 @@
         <v>-0.006729605496712421</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04985451054088985</v>
+        <v>0.04985451054089074</v>
       </c>
       <c r="L91" t="n">
         <v>50557740</v>
@@ -4325,7 +4325,7 @@
         <v>0.006708353285182378</v>
       </c>
       <c r="K92" t="n">
-        <v>0.05689730549564032</v>
+        <v>0.0568973054956412</v>
       </c>
       <c r="L92" t="n">
         <v>50336205</v>
@@ -4334,7 +4334,7 @@
         <v>591.75830078125</v>
       </c>
       <c r="N92" t="n">
-        <v>591.7504968261719</v>
+        <v>591.750498046875</v>
       </c>
     </row>
     <row r="93">
@@ -4369,7 +4369,7 @@
         <v>0.004054565204691052</v>
       </c>
       <c r="K93" t="n">
-        <v>0.06118256453543469</v>
+        <v>0.06118256453543558</v>
       </c>
       <c r="L93" t="n">
         <v>49484890</v>
@@ -4378,7 +4378,7 @@
         <v>592.1974487304688</v>
       </c>
       <c r="N93" t="n">
-        <v>592.0617822265625</v>
+        <v>592.0617846679687</v>
       </c>
     </row>
     <row r="94">
@@ -4413,7 +4413,7 @@
         <v>0.003475602610676143</v>
       </c>
       <c r="K94" t="n">
-        <v>0.06487081342713807</v>
+        <v>0.06487081342713896</v>
       </c>
       <c r="L94" t="n">
         <v>48253810</v>
@@ -4422,7 +4422,7 @@
         <v>593.0742614746093</v>
       </c>
       <c r="N94" t="n">
-        <v>592.3520666503906</v>
+        <v>592.3520690917969</v>
       </c>
     </row>
     <row r="95">
@@ -4457,7 +4457,7 @@
         <v>-0.009153546965176895</v>
       </c>
       <c r="K95" t="n">
-        <v>0.05512346842458671</v>
+        <v>0.0551234684245876</v>
       </c>
       <c r="L95" t="n">
         <v>48428000</v>
@@ -4466,7 +4466,7 @@
         <v>593.6333648681641</v>
       </c>
       <c r="N95" t="n">
-        <v>592.4959582519531</v>
+        <v>592.4959606933594</v>
       </c>
     </row>
     <row r="96">
@@ -4501,7 +4501,7 @@
         <v>0.006791174435053504</v>
       </c>
       <c r="K96" t="n">
-        <v>0.06228899594917681</v>
+        <v>0.06228899594917769</v>
       </c>
       <c r="L96" t="n">
         <v>46075185</v>
@@ -4510,7 +4510,7 @@
         <v>594.840786743164</v>
       </c>
       <c r="N96" t="n">
-        <v>592.6808239746093</v>
+        <v>592.6808264160156</v>
       </c>
     </row>
     <row r="97">
@@ -4545,7 +4545,7 @@
         <v>0.0007606031974243255</v>
       </c>
       <c r="K97" t="n">
-        <v>0.06309697635608447</v>
+        <v>0.06309697635608535</v>
       </c>
       <c r="L97" t="n">
         <v>45182515</v>
@@ -4554,7 +4554,7 @@
         <v>596.0263977050781</v>
       </c>
       <c r="N97" t="n">
-        <v>592.8131604003906</v>
+        <v>592.8131628417968</v>
       </c>
     </row>
     <row r="98">
@@ -4589,7 +4589,7 @@
         <v>-0.003221562579911019</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05967214291823919</v>
+        <v>0.05967214291824008</v>
       </c>
       <c r="L98" t="n">
         <v>45015290</v>
@@ -4598,7 +4598,7 @@
         <v>597.0756988525391</v>
       </c>
       <c r="N98" t="n">
-        <v>592.9427978515625</v>
+        <v>592.9428015136718</v>
       </c>
     </row>
     <row r="99">
@@ -4633,7 +4633,7 @@
         <v>0.0105576952159796</v>
       </c>
       <c r="K99" t="n">
-        <v>0.07085983843203403</v>
+        <v>0.07085983843203492</v>
       </c>
       <c r="L99" t="n">
         <v>44216345</v>
@@ -4642,7 +4642,7 @@
         <v>597.9158355712891</v>
       </c>
       <c r="N99" t="n">
-        <v>593.125224609375</v>
+        <v>593.1252282714844</v>
       </c>
     </row>
     <row r="100">
@@ -4677,7 +4677,7 @@
         <v>-4.927778259666837e-05</v>
       </c>
       <c r="K100" t="n">
-        <v>0.07080706883372434</v>
+        <v>0.07080706883372523</v>
       </c>
       <c r="L100" t="n">
         <v>43395880</v>
@@ -4686,7 +4686,7 @@
         <v>598.8109893798828</v>
       </c>
       <c r="N100" t="n">
-        <v>593.2857153320313</v>
+        <v>593.2857189941407</v>
       </c>
     </row>
     <row r="101">
@@ -4721,7 +4721,7 @@
         <v>0.002935807980869676</v>
       </c>
       <c r="K101" t="n">
-        <v>0.07395075277237795</v>
+        <v>0.07395075277237884</v>
       </c>
       <c r="L101" t="n">
         <v>41829800</v>
@@ -4730,7 +4730,7 @@
         <v>599.5004425048828</v>
       </c>
       <c r="N101" t="n">
-        <v>593.4761608886719</v>
+        <v>593.4761633300782</v>
       </c>
     </row>
     <row r="102">
@@ -4765,7 +4765,7 @@
         <v>0.002354901165740442</v>
       </c>
       <c r="K102" t="n">
-        <v>0.07647980065202953</v>
+        <v>0.07647980065203042</v>
       </c>
       <c r="L102" t="n">
         <v>41253710</v>
@@ -4774,7 +4774,7 @@
         <v>599.9901519775391</v>
       </c>
       <c r="N102" t="n">
-        <v>593.6210583496094</v>
+        <v>593.6210607910157</v>
       </c>
     </row>
     <row r="103">
@@ -4809,7 +4809,7 @@
         <v>-0.004160315177827445</v>
       </c>
       <c r="K103" t="n">
-        <v>0.07200130539875227</v>
+        <v>0.07200130539875316</v>
       </c>
       <c r="L103" t="n">
         <v>40671610</v>
@@ -4818,7 +4818,7 @@
         <v>600.1854400634766</v>
       </c>
       <c r="N103" t="n">
-        <v>593.7351586914062</v>
+        <v>593.7351599121093</v>
       </c>
     </row>
     <row r="104">
@@ -4853,7 +4853,7 @@
         <v>-0.01710408096998883</v>
       </c>
       <c r="K104" t="n">
-        <v>0.05366570827127837</v>
+        <v>0.05366570827127926</v>
       </c>
       <c r="L104" t="n">
         <v>42439995</v>
@@ -4862,7 +4862,7 @@
         <v>599.6991973876953</v>
       </c>
       <c r="N104" t="n">
-        <v>593.6195483398437</v>
+        <v>593.6195495605468</v>
       </c>
     </row>
     <row r="105">
@@ -4897,7 +4897,7 @@
         <v>-0.004550475798734688</v>
       </c>
       <c r="K105" t="n">
-        <v>0.04887102796583331</v>
+        <v>0.0488710279658342</v>
       </c>
       <c r="L105" t="n">
         <v>43246620</v>
@@ -4941,7 +4941,7 @@
         <v>-0.004973145550128621</v>
       </c>
       <c r="K106" t="n">
-        <v>0.04365483968044614</v>
+        <v>0.04365483968044703</v>
       </c>
       <c r="L106" t="n">
         <v>42641890</v>
@@ -4950,7 +4950,7 @@
         <v>598.9115997314453</v>
       </c>
       <c r="N106" t="n">
-        <v>593.3820349121094</v>
+        <v>593.3820361328125</v>
       </c>
     </row>
     <row r="107">
@@ -4985,7 +4985,7 @@
         <v>0.0005048978092221379</v>
       </c>
       <c r="K107" t="n">
-        <v>0.04418177872258489</v>
+        <v>0.04418177872258577</v>
       </c>
       <c r="L107" t="n">
         <v>42586305</v>
@@ -4994,7 +4994,7 @@
         <v>598.4169342041016</v>
       </c>
       <c r="N107" t="n">
-        <v>593.1662780761719</v>
+        <v>593.166279296875</v>
       </c>
     </row>
     <row r="108">
@@ -5029,7 +5029,7 @@
         <v>-0.01596196319285248</v>
       </c>
       <c r="K108" t="n">
-        <v>0.02751458760396774</v>
+        <v>0.02751458760396863</v>
       </c>
       <c r="L108" t="n">
         <v>44437270</v>
@@ -5073,7 +5073,7 @@
         <v>0.01560554890621613</v>
       </c>
       <c r="K109" t="n">
-        <v>0.04354951675267205</v>
+        <v>0.04354951675267293</v>
       </c>
       <c r="L109" t="n">
         <v>46910410</v>
@@ -5117,7 +5117,7 @@
         <v>-0.01751995029472098</v>
       </c>
       <c r="K110" t="n">
-        <v>0.02526658108908508</v>
+        <v>0.02526658108908597</v>
       </c>
       <c r="L110" t="n">
         <v>47294525</v>
@@ -5161,7 +5161,7 @@
         <v>-0.01183684954808395</v>
       </c>
       <c r="K111" t="n">
-        <v>0.01313065482205511</v>
+        <v>0.013130654822056</v>
       </c>
       <c r="L111" t="n">
         <v>49484075</v>
@@ -5205,7 +5205,7 @@
         <v>0.01074779452370311</v>
       </c>
       <c r="K112" t="n">
-        <v>0.02401957492574724</v>
+        <v>0.02401957492574813</v>
       </c>
       <c r="L112" t="n">
         <v>51372710</v>
@@ -5249,7 +5249,7 @@
         <v>-0.017751024406233</v>
       </c>
       <c r="K113" t="n">
-        <v>0.005842178458779879</v>
+        <v>0.005842178458780767</v>
       </c>
       <c r="L113" t="n">
         <v>53844800</v>
@@ -5293,7 +5293,7 @@
         <v>0.005604843634161805</v>
       </c>
       <c r="K114" t="n">
-        <v>0.01147976658968597</v>
+        <v>0.01147976658968686</v>
       </c>
       <c r="L114" t="n">
         <v>56114165</v>
@@ -5337,7 +5337,7 @@
         <v>-0.02663559659697423</v>
       </c>
       <c r="K115" t="n">
-        <v>-0.01546160043919853</v>
+        <v>-0.01546160043919764</v>
       </c>
       <c r="L115" t="n">
         <v>58541070</v>
@@ -5381,7 +5381,7 @@
         <v>-0.008312900806654588</v>
       </c>
       <c r="K116" t="n">
-        <v>-0.02364597049508999</v>
+        <v>-0.0236459704950891</v>
       </c>
       <c r="L116" t="n">
         <v>61643740</v>
@@ -5425,7 +5425,7 @@
         <v>0.005306522471787645</v>
       </c>
       <c r="K117" t="n">
-        <v>-0.0184649258971018</v>
+        <v>-0.01846492589710091</v>
       </c>
       <c r="L117" t="n">
         <v>63620315</v>
@@ -5469,7 +5469,7 @@
         <v>-0.01333052035972282</v>
       </c>
       <c r="K118" t="n">
-        <v>-0.03154929918621252</v>
+        <v>-0.03154929918621163</v>
       </c>
       <c r="L118" t="n">
         <v>65070480</v>
@@ -5513,7 +5513,7 @@
         <v>0.02065578687066272</v>
       </c>
       <c r="K119" t="n">
-        <v>-0.011545187915459</v>
+        <v>-0.01154518791545811</v>
       </c>
       <c r="L119" t="n">
         <v>66157430</v>
@@ -5557,7 +5557,7 @@
         <v>0.0077114253151358</v>
       </c>
       <c r="K120" t="n">
-        <v>-0.003922792454682522</v>
+        <v>-0.003922792454681523</v>
       </c>
       <c r="L120" t="n">
         <v>67262345</v>
@@ -5601,7 +5601,7 @@
         <v>-0.01080847881858626</v>
       </c>
       <c r="K121" t="n">
-        <v>-0.01468887185411261</v>
+        <v>-0.01468887185411161</v>
       </c>
       <c r="L121" t="n">
         <v>69226965</v>
@@ -5645,7 +5645,7 @@
         <v>0.01089091090671435</v>
       </c>
       <c r="K122" t="n">
-        <v>-0.003957936142081508</v>
+        <v>-0.003957936142080509</v>
       </c>
       <c r="L122" t="n">
         <v>71004210</v>
@@ -5689,7 +5689,7 @@
         <v>-0.002891713702973142</v>
       </c>
       <c r="K123" t="n">
-        <v>-0.00683820462687712</v>
+        <v>-0.006838204626876121</v>
       </c>
       <c r="L123" t="n">
         <v>72324420</v>
@@ -5733,7 +5733,7 @@
         <v>0.0003297943679310134</v>
       </c>
       <c r="K124" t="n">
-        <v>-0.006510665460318865</v>
+        <v>-0.006510665460317866</v>
       </c>
       <c r="L124" t="n">
         <v>72686580</v>
@@ -5777,7 +5777,7 @@
         <v>0.01790849345962031</v>
       </c>
       <c r="K125" t="n">
-        <v>0.01128123178948748</v>
+        <v>0.01128123178948859</v>
       </c>
       <c r="L125" t="n">
         <v>73088060</v>
@@ -5821,7 +5821,7 @@
         <v>0.002403851551660896</v>
       </c>
       <c r="K126" t="n">
-        <v>0.01371220174769028</v>
+        <v>0.01371220174769139</v>
       </c>
       <c r="L126" t="n">
         <v>72092520</v>
@@ -5865,7 +5865,7 @@
         <v>-0.01193827206323161</v>
       </c>
       <c r="K127" t="n">
-        <v>0.001610229689408715</v>
+        <v>0.001610229689409826</v>
       </c>
       <c r="L127" t="n">
         <v>72518855</v>
@@ -5909,7 +5909,7 @@
         <v>-0.002655722342658207</v>
       </c>
       <c r="K128" t="n">
-        <v>-0.001049768976212451</v>
+        <v>-0.00104976897621134</v>
       </c>
       <c r="L128" t="n">
         <v>70917230</v>
@@ -5953,7 +5953,7 @@
         <v>-0.02013825225499644</v>
       </c>
       <c r="K129" t="n">
-        <v>-0.0211668807187565</v>
+        <v>-0.02116688071875539</v>
       </c>
       <c r="L129" t="n">
         <v>70063160</v>
@@ -5997,7 +5997,7 @@
         <v>0.006712768433682514</v>
       </c>
       <c r="K130" t="n">
-        <v>-0.0145962006538024</v>
+        <v>-0.01459620065380129</v>
       </c>
       <c r="L130" t="n">
         <v>71117110</v>
@@ -6041,7 +6041,7 @@
         <v>0.002824389123523119</v>
       </c>
       <c r="K131" t="n">
-        <v>-0.01181303688065061</v>
+        <v>-0.0118130368806495</v>
       </c>
       <c r="L131" t="n">
         <v>68365180</v>
@@ -6085,7 +6085,7 @@
         <v>0.006328496838377884</v>
       </c>
       <c r="K132" t="n">
-        <v>-0.005559298808823554</v>
+        <v>-0.005559298808822444</v>
       </c>
       <c r="L132" t="n">
         <v>68604380</v>
@@ -6129,7 +6129,7 @@
         <v>-0.04928092029675291</v>
       </c>
       <c r="K133" t="n">
-        <v>-0.05456625174407304</v>
+        <v>-0.05456625174407193</v>
       </c>
       <c r="L133" t="n">
         <v>70898935</v>
@@ -6173,7 +6173,7 @@
         <v>-0.05854290921310368</v>
       </c>
       <c r="K134" t="n">
-        <v>-0.1099146938352241</v>
+        <v>-0.109914693835223</v>
       </c>
       <c r="L134" t="n">
         <v>77739250</v>
@@ -6217,7 +6217,7 @@
         <v>-0.001781192014297162</v>
       </c>
       <c r="K135" t="n">
-        <v>-0.1115001066746081</v>
+        <v>-0.111500106674607</v>
       </c>
       <c r="L135" t="n">
         <v>85603490</v>
@@ -6261,7 +6261,7 @@
         <v>-0.01566275881675983</v>
       </c>
       <c r="K136" t="n">
-        <v>-0.1254164662124805</v>
+        <v>-0.1254164662124795</v>
       </c>
       <c r="L136" t="n">
         <v>89489215</v>
@@ -6305,7 +6305,7 @@
         <v>0.1050193442598222</v>
       </c>
       <c r="K137" t="n">
-        <v>-0.03356827699367715</v>
+        <v>-0.03356827699367604</v>
       </c>
       <c r="L137" t="n">
         <v>98103170</v>
@@ -6349,7 +6349,7 @@
         <v>-0.04381907413387331</v>
       </c>
       <c r="K138" t="n">
-        <v>-0.07591642030941814</v>
+        <v>-0.07591642030941703</v>
       </c>
       <c r="L138" t="n">
         <v>102515760</v>
@@ -6393,7 +6393,7 @@
         <v>0.01784278934429318</v>
       </c>
       <c r="K139" t="n">
-        <v>-0.05942819166047875</v>
+        <v>-0.05942819166047764</v>
       </c>
       <c r="L139" t="n">
         <v>104276060</v>
@@ -6437,7 +6437,7 @@
         <v>0.009701463709846259</v>
       </c>
       <c r="K140" t="n">
-        <v>-0.05030326839536836</v>
+        <v>-0.05030326839536725</v>
       </c>
       <c r="L140" t="n">
         <v>105227325</v>
@@ -6481,7 +6481,7 @@
         <v>-0.002800892724066584</v>
       </c>
       <c r="K141" t="n">
-        <v>-0.05296326706098964</v>
+        <v>-0.05296326706098853</v>
       </c>
       <c r="L141" t="n">
         <v>104769900</v>
@@ -6525,7 +6525,7 @@
         <v>-0.02222801251159234</v>
       </c>
       <c r="K142" t="n">
-        <v>-0.07401401140969555</v>
+        <v>-0.07401401140969444</v>
       </c>
       <c r="L142" t="n">
         <v>105616340</v>
@@ -6569,7 +6569,7 @@
         <v>0.001426788735072071</v>
       </c>
       <c r="K143" t="n">
-        <v>-0.07269282503234031</v>
+        <v>-0.0726928250323392</v>
       </c>
       <c r="L143" t="n">
         <v>106461835</v>
@@ -6613,7 +6613,7 @@
         <v>-0.02380268261783802</v>
       </c>
       <c r="K144" t="n">
-        <v>-0.09476522340733951</v>
+        <v>-0.09476522340733839</v>
       </c>
       <c r="L144" t="n">
         <v>105742090</v>
@@ -6657,7 +6657,7 @@
         <v>0.0260178006408498</v>
       </c>
       <c r="K145" t="n">
-        <v>-0.07121300545678744</v>
+        <v>-0.07121300545678633</v>
       </c>
       <c r="L145" t="n">
         <v>106601155</v>
@@ -6701,7 +6701,7 @@
         <v>0.01549540940361194</v>
       </c>
       <c r="K146" t="n">
-        <v>-0.05682107072759002</v>
+        <v>-0.05682107072758891</v>
       </c>
       <c r="L146" t="n">
         <v>109212905</v>
@@ -6745,7 +6745,7 @@
         <v>0.02104896402111289</v>
       </c>
       <c r="K147" t="n">
-        <v>-0.03696813137986332</v>
+        <v>-0.0369681313798621</v>
       </c>
       <c r="L147" t="n">
         <v>109828010</v>
@@ -6789,7 +6789,7 @@
         <v>0.007225341198850987</v>
       </c>
       <c r="K148" t="n">
-        <v>-0.03000989754371575</v>
+        <v>-0.03000989754371453</v>
       </c>
       <c r="L148" t="n">
         <v>110775780</v>
@@ -6833,7 +6833,7 @@
         <v>0.0003812613395985931</v>
       </c>
       <c r="K149" t="n">
-        <v>-0.02964007781785594</v>
+        <v>-0.02964007781785472</v>
       </c>
       <c r="L149" t="n">
         <v>109573335</v>
@@ -6877,7 +6877,7 @@
         <v>0.006299446880281057</v>
       </c>
       <c r="K150" t="n">
-        <v>-0.02352734703331583</v>
+        <v>-0.02352734703331461</v>
       </c>
       <c r="L150" t="n">
         <v>107195680</v>
@@ -6921,7 +6921,7 @@
         <v>0.0003968915770615755</v>
       </c>
       <c r="K151" t="n">
-        <v>-0.02313979326212234</v>
+        <v>-0.02313979326212112</v>
       </c>
       <c r="L151" t="n">
         <v>109120275</v>
@@ -6965,7 +6965,7 @@
         <v>0.007086862410970118</v>
       </c>
       <c r="K152" t="n">
-        <v>-0.01621691938221914</v>
+        <v>-0.01621691938221792</v>
       </c>
       <c r="L152" t="n">
         <v>108478855</v>
@@ -7009,7 +7009,7 @@
         <v>0.01484417240735358</v>
       </c>
       <c r="K153" t="n">
-        <v>-0.001613473722091419</v>
+        <v>-0.001613473722090086</v>
       </c>
       <c r="L153" t="n">
         <v>105215420</v>
@@ -7053,7 +7053,7 @@
         <v>-0.005734429364437466</v>
       </c>
       <c r="K154" t="n">
-        <v>-0.007338650735438157</v>
+        <v>-0.007338650735436825</v>
       </c>
       <c r="L154" t="n">
         <v>96250125</v>
@@ -7097,7 +7097,7 @@
         <v>-0.008358276461693515</v>
       </c>
       <c r="K155" t="n">
-        <v>-0.01563558872542903</v>
+        <v>-0.0156355887254277</v>
       </c>
       <c r="L155" t="n">
         <v>85832790</v>
@@ -7141,7 +7141,7 @@
         <v>0.004205465028333633</v>
       </c>
       <c r="K156" t="n">
-        <v>-0.01149587861867762</v>
+        <v>-0.01149587861867629</v>
       </c>
       <c r="L156" t="n">
         <v>80321360</v>
@@ -7185,7 +7185,7 @@
         <v>0.006967831538101654</v>
       </c>
       <c r="K157" t="n">
-        <v>-0.004608148426173408</v>
+        <v>-0.004608148426172076</v>
       </c>
       <c r="L157" t="n">
         <v>71484535</v>
@@ -7229,7 +7229,7 @@
         <v>-0.001274180256365609</v>
       </c>
       <c r="K158" t="n">
-        <v>-0.005876457070795982</v>
+        <v>-0.00587645707079465</v>
       </c>
       <c r="L158" t="n">
         <v>65248145</v>
@@ -7273,7 +7273,7 @@
         <v>0.03304749437232446</v>
       </c>
       <c r="K159" t="n">
-        <v>0.02697683511955207</v>
+        <v>0.02697683511955362</v>
       </c>
       <c r="L159" t="n">
         <v>64304510</v>
@@ -7317,7 +7317,7 @@
         <v>0.006603929737784453</v>
       </c>
       <c r="K160" t="n">
-        <v>0.03375891798101383</v>
+        <v>0.03375891798101538</v>
       </c>
       <c r="L160" t="n">
         <v>64300170</v>
@@ -7361,7 +7361,7 @@
         <v>0.001278041092922733</v>
       </c>
       <c r="K161" t="n">
-        <v>0.03508010435836884</v>
+        <v>0.03508010435837039</v>
       </c>
       <c r="L161" t="n">
         <v>64769700</v>
@@ -7405,7 +7405,7 @@
         <v>0.00488426803519082</v>
       </c>
       <c r="K162" t="n">
-        <v>0.04013571302594832</v>
+        <v>0.04013571302594987</v>
       </c>
       <c r="L162" t="n">
         <v>64158865</v>
@@ -7449,7 +7449,7 @@
         <v>0.00633397907497657</v>
       </c>
       <c r="K163" t="n">
-        <v>0.04672391086739047</v>
+        <v>0.04672391086739203</v>
       </c>
       <c r="L163" t="n">
         <v>63968065</v>
@@ -7493,7 +7493,7 @@
         <v>0.001093923040050182</v>
       </c>
       <c r="K164" t="n">
-        <v>0.04786894627005966</v>
+        <v>0.04786894627006122</v>
       </c>
       <c r="L164" t="n">
         <v>63908085</v>
@@ -7537,7 +7537,7 @@
         <v>-0.003362183449256984</v>
       </c>
       <c r="K165" t="n">
-        <v>0.04434581864192011</v>
+        <v>0.04434581864192166</v>
       </c>
       <c r="L165" t="n">
         <v>63141405</v>
@@ -7581,7 +7581,7 @@
         <v>-0.01685075184451024</v>
       </c>
       <c r="K166" t="n">
-        <v>0.02674780641213315</v>
+        <v>0.0267478064121347</v>
       </c>
       <c r="L166" t="n">
         <v>63371755</v>
@@ -7625,7 +7625,7 @@
         <v>0.0003946243464791888</v>
       </c>
       <c r="K167" t="n">
-        <v>0.02715298609423744</v>
+        <v>0.027152986094239</v>
       </c>
       <c r="L167" t="n">
         <v>63707255</v>
@@ -7669,7 +7669,7 @@
         <v>-0.006825771490515775</v>
       </c>
       <c r="K168" t="n">
-        <v>0.02014187452535721</v>
+        <v>0.02014187452535876</v>
       </c>
       <c r="L168" t="n">
         <v>64452725</v>
@@ -7713,7 +7713,7 @@
         <v>0.02079061557665374</v>
       </c>
       <c r="K169" t="n">
-        <v>0.04135125207226076</v>
+        <v>0.04135125207226253</v>
       </c>
       <c r="L169" t="n">
         <v>65701460</v>
@@ -7757,7 +7757,7 @@
         <v>-0.005785368979003946</v>
       </c>
       <c r="K170" t="n">
-        <v>0.03532665084227493</v>
+        <v>0.03532665084227671</v>
       </c>
       <c r="L170" t="n">
         <v>66734980</v>
@@ -7801,7 +7801,7 @@
         <v>0.003947384500045503</v>
       </c>
       <c r="K171" t="n">
-        <v>0.03941348321629379</v>
+        <v>0.03941348321629556</v>
       </c>
       <c r="L171" t="n">
         <v>65578570</v>
@@ -7845,7 +7845,7 @@
         <v>-0.00111847036615309</v>
       </c>
       <c r="K172" t="n">
-        <v>0.03825093003713631</v>
+        <v>0.03825093003713809</v>
       </c>
       <c r="L172" t="n">
         <v>66949325</v>
@@ -7889,7 +7889,7 @@
         <v>0.005632879250749179</v>
       </c>
       <c r="K173" t="n">
-        <v>0.04409927215801357</v>
+        <v>0.04409927215801535</v>
       </c>
       <c r="L173" t="n">
         <v>66994985</v>
@@ -7933,7 +7933,7 @@
         <v>0.005702616355661272</v>
       </c>
       <c r="K174" t="n">
-        <v>0.05005336974435592</v>
+        <v>0.0500533697443577</v>
       </c>
       <c r="L174" t="n">
         <v>68242335</v>
@@ -7977,7 +7977,7 @@
         <v>-0.0002684686781393442</v>
       </c>
       <c r="K175" t="n">
-        <v>0.04977146330420479</v>
+        <v>0.04977146330420656</v>
       </c>
       <c r="L175" t="n">
         <v>68694810</v>
@@ -8021,7 +8021,7 @@
         <v>-0.004832806844400794</v>
       </c>
       <c r="K176" t="n">
-        <v>0.04469812059129152</v>
+        <v>0.0446981205912933</v>
       </c>
       <c r="L176" t="n">
         <v>70529345</v>
@@ -8065,7 +8065,7 @@
         <v>0.01026901060810226</v>
       </c>
       <c r="K177" t="n">
-        <v>0.05542613667390794</v>
+        <v>0.05542613667390972</v>
       </c>
       <c r="L177" t="n">
         <v>70602240</v>
@@ -8109,7 +8109,7 @@
         <v>0.0009013027856885625</v>
       </c>
       <c r="K178" t="n">
-        <v>0.05637739519098073</v>
+        <v>0.0563773951909825</v>
       </c>
       <c r="L178" t="n">
         <v>71372890</v>
@@ -8153,7 +8153,7 @@
         <v>0.005669603780814159</v>
       </c>
       <c r="K179" t="n">
-        <v>0.06236663646472218</v>
+        <v>0.06236663646472396</v>
       </c>
       <c r="L179" t="n">
         <v>70735560</v>
@@ -8197,7 +8197,7 @@
         <v>-0.00285195175326991</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0593368180732412</v>
+        <v>0.05933681807324298</v>
       </c>
       <c r="L180" t="n">
         <v>71021110</v>
@@ -8241,7 +8241,7 @@
         <v>0.003974284235328973</v>
       </c>
       <c r="K181" t="n">
-        <v>0.06354692368921322</v>
+        <v>0.063546923689215</v>
       </c>
       <c r="L181" t="n">
         <v>70913385</v>
@@ -8285,7 +8285,7 @@
         <v>-0.01118010780429701</v>
       </c>
       <c r="K182" t="n">
-        <v>0.05165635442743932</v>
+        <v>0.0516563544274411</v>
       </c>
       <c r="L182" t="n">
         <v>71825280</v>
@@ -8329,7 +8329,7 @@
         <v>0.009514208796833623</v>
       </c>
       <c r="K183" t="n">
-        <v>0.06166203256597891</v>
+        <v>0.06166203256598068</v>
       </c>
       <c r="L183" t="n">
         <v>72021880</v>
@@ -8373,7 +8373,7 @@
         <v>-0.008545033277707503</v>
       </c>
       <c r="K184" t="n">
-        <v>0.05259009516802404</v>
+        <v>0.05259009516802582</v>
       </c>
       <c r="L184" t="n">
         <v>72723925</v>
@@ -8417,7 +8417,7 @@
         <v>-0.0001507074776078143</v>
       </c>
       <c r="K185" t="n">
-        <v>0.05243146196982629</v>
+        <v>0.05243146196982806</v>
       </c>
       <c r="L185" t="n">
         <v>73523450</v>
@@ -8461,7 +8461,7 @@
         <v>-0.002348596298099359</v>
       </c>
       <c r="K186" t="n">
-        <v>0.04995972533424076</v>
+        <v>0.04995972533424253</v>
       </c>
       <c r="L186" t="n">
         <v>73466135</v>
@@ -8505,7 +8505,7 @@
         <v>0.009877480029380825</v>
       </c>
       <c r="K187" t="n">
-        <v>0.0603306815528839</v>
+        <v>0.06033068155288568</v>
       </c>
       <c r="L187" t="n">
         <v>74294415</v>
@@ -8549,7 +8549,7 @@
         <v>0.01104727957451557</v>
       </c>
       <c r="K188" t="n">
-        <v>0.07204445103343526</v>
+        <v>0.07204445103343704</v>
       </c>
       <c r="L188" t="n">
         <v>73879730</v>
@@ -8593,7 +8593,7 @@
         <v>0.0005603188542100401</v>
       </c>
       <c r="K189" t="n">
-        <v>0.07264513775190062</v>
+        <v>0.0726451377519024</v>
       </c>
       <c r="L189" t="n">
         <v>73356045</v>
@@ -8637,7 +8637,7 @@
         <v>0.007823840449262098</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08103734216834835</v>
+        <v>0.08103734216835012</v>
       </c>
       <c r="L190" t="n">
         <v>73861190</v>
@@ -8681,7 +8681,7 @@
         <v>0.004968310006379761</v>
       </c>
       <c r="K191" t="n">
-        <v>0.08640827081271363</v>
+        <v>0.0864082708127154</v>
       </c>
       <c r="L191" t="n">
         <v>74675445</v>
@@ -8725,7 +8725,7 @@
         <v>0.004781209119572027</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09160261594470187</v>
+        <v>0.09160261594470365</v>
       </c>
       <c r="L192" t="n">
         <v>74770510</v>
@@ -8769,7 +8769,7 @@
         <v>-0.0003236298209773336</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09124934078552527</v>
+        <v>0.09124934078552704</v>
       </c>
       <c r="L193" t="n">
         <v>75190490</v>
@@ -8813,7 +8813,7 @@
         <v>0.004533275199175568</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09619627435822498</v>
+        <v>0.09619627435822675</v>
       </c>
       <c r="L194" t="n">
         <v>75335700</v>
@@ -8857,7 +8857,7 @@
         <v>0.007881351217300603</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1048357821995385</v>
+        <v>0.1048357821995403</v>
       </c>
       <c r="L195" t="n">
         <v>75023280</v>
@@ -8901,7 +8901,7 @@
         <v>-0.007451911689688506</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09660264351897951</v>
+        <v>0.09660264351898129</v>
       </c>
       <c r="L196" t="n">
         <v>74150070</v>
@@ -8945,7 +8945,7 @@
         <v>-0.0005477706277796646</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09600195680051438</v>
+        <v>0.09600195680051615</v>
       </c>
       <c r="L197" t="n">
         <v>73771865</v>
@@ -8989,7 +8989,7 @@
         <v>0.005996615280215112</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1025742588818099</v>
+        <v>0.1025742588818117</v>
       </c>
       <c r="L198" t="n">
         <v>74426710</v>
@@ -9033,7 +9033,7 @@
         <v>0.00282032849074132</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1056838804772924</v>
+        <v>0.1056838804772942</v>
       </c>
       <c r="L199" t="n">
         <v>73990810</v>
@@ -9077,7 +9077,7 @@
         <v>-0.003515471310904239</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1017968805165452</v>
+        <v>0.101796880516547</v>
       </c>
       <c r="L200" t="n">
         <v>73491410</v>
@@ -9121,7 +9121,7 @@
         <v>0.001908207963752684</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1038993380983848</v>
+        <v>0.1038993380983866</v>
       </c>
       <c r="L201" t="n">
         <v>72879885</v>
@@ -9165,7 +9165,7 @@
         <v>-0.004273266498076467</v>
       </c>
       <c r="K202" t="n">
-        <v>0.0991820820396403</v>
+        <v>0.09918208203964207</v>
       </c>
       <c r="L202" t="n">
         <v>72120450</v>
@@ -9209,7 +9209,7 @@
         <v>0.00334324975208955</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1028569222629205</v>
+        <v>0.1028569222629223</v>
       </c>
       <c r="L203" t="n">
         <v>72570620</v>
@@ -9253,7 +9253,7 @@
         <v>0.006119653171936301</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1096060241254386</v>
+        <v>0.1096060241254404</v>
       </c>
       <c r="L204" t="n">
         <v>71904435</v>
@@ -9297,7 +9297,7 @@
         <v>-0.0007323592062571382</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1087933939383521</v>
+        <v>0.1087933939383539</v>
       </c>
       <c r="L205" t="n">
         <v>71355265</v>
@@ -9341,7 +9341,7 @@
         <v>0.001896167124852521</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1108958515201917</v>
+        <v>0.1108958515201934</v>
       </c>
       <c r="L206" t="n">
         <v>69821445</v>
@@ -9385,7 +9385,7 @@
         <v>0.0001430895625800233</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1110548091216577</v>
+        <v>0.1110548091216594</v>
       </c>
       <c r="L207" t="n">
         <v>68452460</v>
@@ -9429,7 +9429,7 @@
         <v>0.008507549960310445</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1205071634189034</v>
+        <v>0.1205071634189052</v>
       </c>
       <c r="L208" t="n">
         <v>68591245</v>
@@ -9473,7 +9473,7 @@
         <v>0.000331011779483692</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1208780644889909</v>
+        <v>0.1208780644889926</v>
       </c>
       <c r="L209" t="n">
         <v>69050860</v>
@@ -9517,7 +9517,7 @@
         <v>0.00422435789769593</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1256130545930692</v>
+        <v>0.1256130545930709</v>
       </c>
       <c r="L210" t="n">
         <v>67966710</v>
@@ -9561,7 +9561,7 @@
         <v>-0.000251119494356411</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1253303912119588</v>
+        <v>0.1253303912119605</v>
       </c>
       <c r="L211" t="n">
         <v>66399645</v>
@@ -9605,7 +9605,7 @@
         <v>-0.002637609180098366</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1223622094414545</v>
+        <v>0.1223622094414563</v>
       </c>
       <c r="L212" t="n">
         <v>64802335</v>
@@ -9649,7 +9649,7 @@
         <v>-0.001259330569119865</v>
       </c>
       <c r="K213" t="n">
-        <v>0.12094878440148</v>
+        <v>0.1209487844014818</v>
       </c>
       <c r="L213" t="n">
         <v>65321775</v>
@@ -9693,7 +9693,7 @@
         <v>-0.003751210779825653</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1167438692378007</v>
+        <v>0.1167438692378024</v>
       </c>
       <c r="L214" t="n">
         <v>67165515</v>
@@ -9737,7 +9737,7 @@
         <v>-0.01639043136551654</v>
       </c>
       <c r="K215" t="n">
-        <v>0.09843995549619722</v>
+        <v>0.09843995549619877</v>
       </c>
       <c r="L215" t="n">
         <v>71617405</v>
@@ -9781,7 +9781,7 @@
         <v>0.01519979578852215</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1151360185056929</v>
+        <v>0.1151360185056944</v>
       </c>
       <c r="L216" t="n">
         <v>71537580</v>
@@ -9825,7 +9825,7 @@
         <v>-0.005069964619629497</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1094823183457945</v>
+        <v>0.109482318345796</v>
       </c>
       <c r="L217" t="n">
         <v>71988920</v>
@@ -9869,7 +9869,7 @@
         <v>0.007659684291185354</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1179806026309758</v>
+        <v>0.1179806026309773</v>
       </c>
       <c r="L218" t="n">
         <v>71901130</v>
@@ -9913,7 +9913,7 @@
         <v>-0.0008376210633260772</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1170441585298221</v>
+        <v>0.1170441585298236</v>
       </c>
       <c r="L219" t="n">
         <v>72734970</v>
@@ -9957,7 +9957,7 @@
         <v>0.007797567971946862</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1257543862836246</v>
+        <v>0.1257543862836261</v>
       </c>
       <c r="L220" t="n">
         <v>72754040</v>
@@ -10001,7 +10001,7 @@
         <v>-0.001977485842922677</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1235282229221406</v>
+        <v>0.1235282229221422</v>
       </c>
       <c r="L221" t="n">
         <v>73096230</v>
@@ -10045,7 +10045,7 @@
         <v>0.01064608863027106</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1354894039619807</v>
+        <v>0.1354894039619823</v>
       </c>
       <c r="L222" t="n">
         <v>72616905</v>
@@ -10089,7 +10089,7 @@
         <v>0.003423098280584735</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1393762957883051</v>
+        <v>0.1393762957883067</v>
       </c>
       <c r="L223" t="n">
         <v>71172170</v>
@@ -10133,7 +10133,7 @@
         <v>9.300854748550691e-05</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1394822675226157</v>
+        <v>0.1394822675226173</v>
       </c>
       <c r="L224" t="n">
         <v>70694260</v>
@@ -10177,7 +10177,7 @@
         <v>-0.002341224975672906</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1368144831785554</v>
+        <v>0.1368144831785569</v>
       </c>
       <c r="L225" t="n">
         <v>70842805</v>
@@ -10221,7 +10221,7 @@
         <v>-0.0002176358262052647</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1365670716192666</v>
+        <v>0.1365670716192682</v>
       </c>
       <c r="L226" t="n">
         <v>69864300</v>
@@ -10265,7 +10265,7 @@
         <v>-0.005425144902516887</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1304010305643029</v>
+        <v>0.1304010305643044</v>
       </c>
       <c r="L227" t="n">
         <v>70349520</v>
@@ -10309,7 +10309,7 @@
         <v>-0.002657058553148572</v>
       </c>
       <c r="K228" t="n">
-        <v>0.127397488837554</v>
+        <v>0.1273974888375555</v>
       </c>
       <c r="L228" t="n">
         <v>71268485</v>
@@ -10353,7 +10353,7 @@
         <v>-0.004011840141401879</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1228745503365198</v>
+        <v>0.1228745503365214</v>
       </c>
       <c r="L229" t="n">
         <v>70443420</v>
@@ -10397,7 +10397,7 @@
         <v>0.01535680353218227</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1401183141973252</v>
+        <v>0.1401183141973268</v>
       </c>
       <c r="L230" t="n">
         <v>71804310</v>
@@ -10441,7 +10441,7 @@
         <v>-0.004401088516101992</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1351005525777138</v>
+        <v>0.1351005525777154</v>
       </c>
       <c r="L231" t="n">
         <v>71622170</v>
@@ -10485,7 +10485,7 @@
         <v>0.004187051216404392</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1398532767271257</v>
+        <v>0.1398532767271272</v>
       </c>
       <c r="L232" t="n">
         <v>71173435</v>
@@ -10529,7 +10529,7 @@
         <v>0.002278514804511911</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1424504492931198</v>
+        <v>0.1424504492931213</v>
       </c>
       <c r="L233" t="n">
         <v>69569545</v>
@@ -10573,7 +10573,7 @@
         <v>0.003541378473170376</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1464962987209102</v>
+        <v>0.1464962987209117</v>
       </c>
       <c r="L234" t="n">
         <v>67476260</v>
@@ -10617,7 +10617,7 @@
         <v>-0.005963682184690233</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1396589591694151</v>
+        <v>0.1396589591694166</v>
       </c>
       <c r="L235" t="n">
         <v>64197190</v>
@@ -10661,7 +10661,7 @@
         <v>-0.00741027850099818</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1312137688858119</v>
+        <v>0.1312137688858135</v>
       </c>
       <c r="L236" t="n">
         <v>64635465</v>
@@ -10705,7 +10705,7 @@
         <v>0.0054195601815894</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1373444499845311</v>
+        <v>0.1373444499845327</v>
       </c>
       <c r="L237" t="n">
         <v>64773940</v>
@@ -10749,7 +10749,7 @@
         <v>0.008357390788786612</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1468496820145093</v>
+        <v>0.1468496820145109</v>
       </c>
       <c r="L238" t="n">
         <v>64817025</v>
@@ -10793,7 +10793,7 @@
         <v>-0.00289625145840311</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1435281169504057</v>
+        <v>0.1435281169504072</v>
       </c>
       <c r="L239" t="n">
         <v>65365680</v>
@@ -10837,7 +10837,7 @@
         <v>0.002456628855379561</v>
       </c>
       <c r="K240" t="n">
-        <v>0.146337341119444</v>
+        <v>0.1463373411194455</v>
       </c>
       <c r="L240" t="n">
         <v>65319755</v>
@@ -10881,7 +10881,7 @@
         <v>0.002311848648811843</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1489874995525935</v>
+        <v>0.148987499552595</v>
       </c>
       <c r="L241" t="n">
         <v>65689335</v>
@@ -10925,7 +10925,7 @@
         <v>0.00289086266421279</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1523090646166974</v>
+        <v>0.1523090646166989</v>
       </c>
       <c r="L242" t="n">
         <v>66354520</v>
@@ -10969,7 +10969,7 @@
         <v>0.008310228771525541</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1618850165591648</v>
+        <v>0.1618850165591663</v>
       </c>
       <c r="L243" t="n">
         <v>66846600</v>
@@ -11013,7 +11013,7 @@
         <v>-0.0003345797943027362</v>
       </c>
       <c r="K244" t="n">
-        <v>0.161496273309321</v>
+        <v>0.1614962733093226</v>
       </c>
       <c r="L244" t="n">
         <v>67519230</v>
@@ -11057,7 +11057,7 @@
         <v>0.005323880160421179</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1676799402751956</v>
+        <v>0.1676799402751972</v>
       </c>
       <c r="L245" t="n">
         <v>67278225</v>
@@ -11101,7 +11101,7 @@
         <v>-0.001376869244928747</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1660721976775104</v>
+        <v>0.1660721976775119</v>
       </c>
       <c r="L246" t="n">
         <v>68146430</v>
@@ -11145,7 +11145,7 @@
         <v>-0.001242356060526695</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1646235208157141</v>
+        <v>0.1646235208157156</v>
       </c>
       <c r="L247" t="n">
         <v>69756505</v>
@@ -11189,7 +11189,7 @@
         <v>0.004672452908252023</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1700651693725681</v>
+        <v>0.1700651693725697</v>
       </c>
       <c r="L248" t="n">
         <v>69834950</v>
@@ -11233,7 +11233,7 @@
         <v>0.004952835223685836</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1758603093574445</v>
+        <v>0.175860309357446</v>
       </c>
       <c r="L249" t="n">
         <v>71991940</v>
@@ -11277,7 +11277,7 @@
         <v>0.004731075170536503</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1814233928710649</v>
+        <v>0.1814233928710665</v>
       </c>
       <c r="L250" t="n">
         <v>71260390</v>
@@ -11306,7 +11306,7 @@
         <v>663.2100219726562</v>
       </c>
       <c r="F251" t="n">
-        <v>71973602</v>
+        <v>81620100</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -11321,10 +11321,10 @@
         <v>-0.005443591771073009</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1749922062114788</v>
+        <v>0.1749922062114804</v>
       </c>
       <c r="L251" t="n">
-        <v>72295355.09999999</v>
+        <v>72777680</v>
       </c>
       <c r="M251" t="n">
         <v>651.901025390625</v>
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71973602</v>
+        <v>81620100</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>45923</v>
